--- a/municipal/დემოგრაფია/თვითმკვლელობის შედეგად სიკვილიანობის კოეფიციენტი/თელავი.xlsx
+++ b/municipal/დემოგრაფია/თვითმკვლელობის შედეგად სიკვილიანობის კოეფიციენტი/თელავი.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\დემოგრაფია\12 - ცხრილები და რელიზები\მუნიციპალური სტატისტიკა (რუკა)\ქართული\cx 33\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\გარდაცვალ. მიზეზები\-თვითმკვლელობა\თვითმკვლელობის სიკვდილის კოეფიციენტი\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99ECFF4D-638B-46B1-A923-417A75579720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA4DC30-2C29-4A3C-A71A-D65701B9C357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14010" yWindow="780" windowWidth="12675" windowHeight="14850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateCount="10000"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -195,7 +195,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -233,10 +233,13 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -614,26 +617,42 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
         <v>2021</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>20.2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="17">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
         <v>3</v>
       </c>
     </row>
